--- a/data/trans_orig/Q5401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7C5B34-4408-4201-A24D-41AFE48397C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E751EC-A160-4663-B8DE-82C1728566EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A55D3040-7E26-4226-81DC-78A9BF0CDA6E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6EA68A-3B93-4E18-8B70-2277B93B6316}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,82 +101,82 @@
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
   </si>
   <si>
     <t>72,79%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,19 +191,19 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>11,56%</t>
@@ -212,145 +212,145 @@
     <t>9,85%</t>
   </si>
   <si>
-    <t>13,53%</t>
+    <t>13,62%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>15,96%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>27,04%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
   </si>
   <si>
     <t>74,68%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
@@ -359,82 +359,79 @@
     <t>7,41%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>82,05%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
 </sst>
 </file>
@@ -846,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DDB4CBC-D3E7-45C3-BDC6-214C34F17452}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64C784-0319-4A4E-99F0-E0570A0BA3FC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,7 +2299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373E4379-C1EA-44AF-A153-DA5A13338E57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C217A-DCE2-465A-B55F-EC6798A01B29}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3758,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C077A802-32F3-4B6A-8597-1FE15752BC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65175ED6-11D0-4772-9FE8-E9CBD8F4B7AC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5214,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104E97DE-91D1-4429-9DFB-0FC8C8E47C4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3F8F14-39CB-4BB0-A57C-D88EFC815182}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6353,10 +6350,10 @@
         <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>1124</v>
@@ -6365,13 +6362,13 @@
         <v>709478</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>1925</v>
@@ -6380,13 +6377,13 @@
         <v>1263725</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,10 +6556,10 @@
         <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>1124</v>
@@ -6571,13 +6568,13 @@
         <v>709478</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>1925</v>
@@ -6586,13 +6583,13 @@
         <v>1263725</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36E751EC-A160-4663-B8DE-82C1728566EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F96042A-96AB-4225-9CD3-D2C861685B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6EA68A-3B93-4E18-8B70-2277B93B6316}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8106CB5-D1D8-407B-A6A3-2FA23D2551A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,316 +101,313 @@
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
     <t>20,23%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>27,17%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>74,68%</t>
   </si>
   <si>
-    <t>72,16%</t>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
   </si>
   <si>
     <t>77,09%</t>
-  </si>
-  <si>
-    <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
   </si>
   <si>
     <t>82,05%</t>
@@ -843,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F64C784-0319-4A4E-99F0-E0570A0BA3FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D49DB1-13EC-4027-84B7-D6C24E85C890}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2299,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29C217A-DCE2-465A-B55F-EC6798A01B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1144D5A2-B93B-4B1B-9799-4ABFCF0B4B68}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3755,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65175ED6-11D0-4772-9FE8-E9CBD8F4B7AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FF7650-05F7-44D5-A7B0-9E50C276E63F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4858,10 +4855,10 @@
         <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>221</v>
@@ -4870,13 +4867,13 @@
         <v>250723</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4888,13 @@
         <v>478104</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>470</v>
@@ -4906,13 +4903,13 @@
         <v>544444</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>971</v>
@@ -4921,13 +4918,13 @@
         <v>1022548</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,10 +5061,10 @@
         <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>221</v>
@@ -5076,13 +5073,13 @@
         <v>250723</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5094,13 @@
         <v>478104</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>470</v>
@@ -5112,13 +5109,13 @@
         <v>544444</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>971</v>
@@ -5127,13 +5124,13 @@
         <v>1022548</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3F8F14-39CB-4BB0-A57C-D88EFC815182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3130B3D7-B8AC-4975-A8A6-2AF234D61949}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5228,7 +5225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6245,13 +6242,13 @@
         <v>51502</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>199</v>
@@ -6260,13 +6257,13 @@
         <v>109857</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>285</v>
@@ -6275,13 +6272,13 @@
         <v>161359</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6293,13 @@
         <v>89723</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
@@ -6311,13 +6308,13 @@
         <v>206256</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>521</v>
@@ -6326,13 +6323,13 @@
         <v>295979</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6344,13 @@
         <v>554248</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>1124</v>
@@ -6362,13 +6359,13 @@
         <v>709478</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>1925</v>
@@ -6377,13 +6374,13 @@
         <v>1263725</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6448,13 @@
         <v>51502</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>199</v>
@@ -6466,13 +6463,13 @@
         <v>109857</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>285</v>
@@ -6481,13 +6478,13 @@
         <v>161359</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,13 +6499,13 @@
         <v>89723</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -6517,13 +6514,13 @@
         <v>206256</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>521</v>
@@ -6532,13 +6529,13 @@
         <v>295979</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6550,13 @@
         <v>554248</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>1124</v>
@@ -6568,13 +6565,13 @@
         <v>709478</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>1925</v>
@@ -6583,13 +6580,13 @@
         <v>1263725</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F96042A-96AB-4225-9CD3-D2C861685B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B56A4A4C-EAE0-4A6F-A7C3-CBDEF3F626D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8106CB5-D1D8-407B-A6A3-2FA23D2551A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E201B9A-C326-4054-83FB-ACBEEAE783D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,82 +101,82 @@
     <t>5,93%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
   </si>
   <si>
     <t>20,54%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
   </si>
   <si>
     <t>72,79%</t>
   </si>
   <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,82 +191,82 @@
     <t>9,82%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>12,87%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
   </si>
   <si>
     <t>75,23%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>66,56%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>70,29%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
   </si>
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
@@ -275,79 +275,82 @@
     <t>7,76%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>27,17%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>18,31%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>69,99%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>74,68%</t>
   </si>
   <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
@@ -356,79 +359,82 @@
     <t>7,41%</t>
   </si>
   <si>
-    <t>9,04%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
   </si>
   <si>
     <t>12,9%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
   </si>
   <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>79,69%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D49DB1-13EC-4027-84B7-D6C24E85C890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D5529D-D58A-40E7-864D-EF10F78E4F0B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1144D5A2-B93B-4B1B-9799-4ABFCF0B4B68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF7E1CA-A318-4544-A504-19062E4F26CB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3752,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FF7650-05F7-44D5-A7B0-9E50C276E63F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D509848F-5976-4E95-A495-02143D93B6C0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4855,10 +4861,10 @@
         <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>221</v>
@@ -4867,13 +4873,13 @@
         <v>250723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4894,13 @@
         <v>478104</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>470</v>
@@ -4903,13 +4909,13 @@
         <v>544444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>971</v>
@@ -4918,13 +4924,13 @@
         <v>1022548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,10 +5067,10 @@
         <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>221</v>
@@ -5073,13 +5079,13 @@
         <v>250723</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5100,13 @@
         <v>478104</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>470</v>
@@ -5109,13 +5115,13 @@
         <v>544444</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>971</v>
@@ -5124,13 +5130,13 @@
         <v>1022548</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3130B3D7-B8AC-4975-A8A6-2AF234D61949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9102092D-9505-4A83-8E23-1B1C11C5D388}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5225,7 +5231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,13 +6248,13 @@
         <v>51502</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>199</v>
@@ -6257,13 +6263,13 @@
         <v>109857</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>285</v>
@@ -6272,13 +6278,13 @@
         <v>161359</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6299,13 @@
         <v>89723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>383</v>
@@ -6308,13 +6314,13 @@
         <v>206256</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>521</v>
@@ -6323,13 +6329,13 @@
         <v>295979</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6350,13 @@
         <v>554248</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>1124</v>
@@ -6359,13 +6365,13 @@
         <v>709478</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>1925</v>
@@ -6374,13 +6380,13 @@
         <v>1263725</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6454,13 @@
         <v>51502</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>199</v>
@@ -6463,13 +6469,13 @@
         <v>109857</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>285</v>
@@ -6478,13 +6484,13 @@
         <v>161359</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6505,13 @@
         <v>89723</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -6514,13 +6520,13 @@
         <v>206256</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>521</v>
@@ -6529,13 +6535,13 @@
         <v>295979</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6556,13 @@
         <v>554248</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>1124</v>
@@ -6565,13 +6571,13 @@
         <v>709478</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>1925</v>
@@ -6580,13 +6586,13 @@
         <v>1263725</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5401-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B56A4A4C-EAE0-4A6F-A7C3-CBDEF3F626D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{406535A5-E6AF-4936-9F04-CDBE9E1C7233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E201B9A-C326-4054-83FB-ACBEEAE783D9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2B4DDF4B-E844-4148-9068-08D8D0781449}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="344">
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -83,19 +83,187 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
   </si>
   <si>
     <t>5,93%</t>
@@ -179,15 +347,171 @@
     <t>75,35%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si son capaces de realizar las tareas de la casa en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
     <t>9,82%</t>
   </si>
   <si>
@@ -272,15 +596,168 @@
     <t>Población según si son capaces de realizar las tareas de la casa en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
     <t>7,76%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
     <t>6,44%</t>
   </si>
   <si>
@@ -356,85 +833,244 @@
     <t>Población según si son capaces de realizar las tareas de la casa en 2023 (Tasa respuesta: 31,24%)</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
 </sst>
 </file>
@@ -846,8 +1482,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D5529D-D58A-40E7-864D-EF10F78E4F0B}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8C8494-E6E1-4278-8925-C955EA9554F2}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1874,10 +2510,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>29806</v>
+        <v>7599</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1889,10 +2525,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>48960</v>
+        <v>12950</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1904,10 +2540,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>78766</v>
+        <v>20549</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1925,10 +2561,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
-        <v>84223</v>
+        <v>30974</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1940,10 +2576,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="I25" s="7">
-        <v>157952</v>
+        <v>46675</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1955,10 +2591,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="N25" s="7">
-        <v>242175</v>
+        <v>77648</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1976,10 +2612,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>403</v>
+        <v>264</v>
       </c>
       <c r="D26" s="7">
-        <v>388438</v>
+        <v>254010</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1991,10 +2627,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>469</v>
+        <v>307</v>
       </c>
       <c r="I26" s="7">
-        <v>469930</v>
+        <v>283309</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -2006,10 +2642,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>872</v>
+        <v>571</v>
       </c>
       <c r="N26" s="7">
-        <v>858368</v>
+        <v>537320</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -2027,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -2042,10 +2678,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -2057,10 +2693,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -2074,55 +2710,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>24</v>
+      </c>
+      <c r="D28" s="7">
+        <v>22207</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>32</v>
       </c>
-      <c r="D28" s="7">
-        <v>29806</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="7">
-        <v>46</v>
-      </c>
       <c r="I28" s="7">
-        <v>48960</v>
+        <v>36010</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="N28" s="7">
-        <v>78766</v>
+        <v>58217</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,49 +2767,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D29" s="7">
-        <v>84223</v>
+        <v>53249</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="I29" s="7">
-        <v>157952</v>
+        <v>111277</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="N29" s="7">
-        <v>242175</v>
+        <v>164526</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,49 +2818,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>403</v>
+        <v>139</v>
       </c>
       <c r="D30" s="7">
-        <v>388438</v>
+        <v>134427</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
-        <v>469</v>
+        <v>162</v>
       </c>
       <c r="I30" s="7">
-        <v>469930</v>
+        <v>186621</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
-        <v>872</v>
+        <v>301</v>
       </c>
       <c r="N30" s="7">
-        <v>858368</v>
+        <v>321048</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,63 +2869,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>32</v>
+      </c>
+      <c r="D32" s="7">
+        <v>29806</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="7">
+        <v>46</v>
+      </c>
+      <c r="I32" s="7">
+        <v>48960</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="7">
+        <v>78</v>
+      </c>
+      <c r="N32" s="7">
+        <v>78766</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>88</v>
+      </c>
+      <c r="D33" s="7">
+        <v>84223</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="7">
+        <v>146</v>
+      </c>
+      <c r="I33" s="7">
+        <v>157952</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="7">
+        <v>234</v>
+      </c>
+      <c r="N33" s="7">
+        <v>242175</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>403</v>
+      </c>
+      <c r="D34" s="7">
+        <v>388438</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="7">
+        <v>469</v>
+      </c>
+      <c r="I34" s="7">
+        <v>469930</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="7">
+        <v>872</v>
+      </c>
+      <c r="N34" s="7">
+        <v>858368</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2302,8 +3145,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF7E1CA-A318-4544-A504-19062E4F26CB}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F881CFA5-E813-42B8-938A-713FB66C34D2}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2319,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3330,49 +4173,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7">
-        <v>54930</v>
+        <v>14259</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="I24" s="7">
-        <v>95607</v>
+        <v>14586</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="N24" s="7">
-        <v>150537</v>
+        <v>28845</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,49 +4224,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>27118</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="7">
+        <v>48</v>
+      </c>
+      <c r="I25" s="7">
+        <v>48271</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="7">
         <v>73</v>
       </c>
-      <c r="D25" s="7">
-        <v>83709</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="7">
-        <v>143</v>
-      </c>
-      <c r="I25" s="7">
-        <v>152810</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M25" s="7">
-        <v>216</v>
-      </c>
       <c r="N25" s="7">
-        <v>236520</v>
+        <v>75389</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,49 +4275,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>382</v>
+        <v>244</v>
       </c>
       <c r="D26" s="7">
-        <v>420997</v>
+        <v>268408</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
-        <v>465</v>
+        <v>282</v>
       </c>
       <c r="I26" s="7">
-        <v>494558</v>
+        <v>291139</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
-        <v>847</v>
+        <v>526</v>
       </c>
       <c r="N26" s="7">
-        <v>915555</v>
+        <v>559548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,10 +4326,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -3498,10 +4341,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -3513,10 +4356,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -3530,55 +4373,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7">
-        <v>54930</v>
+        <v>40671</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="H28" s="7">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I28" s="7">
-        <v>95607</v>
+        <v>81021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="N28" s="7">
-        <v>150537</v>
+        <v>121692</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,49 +4430,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D29" s="7">
-        <v>83709</v>
+        <v>56591</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
+        <v>95</v>
+      </c>
+      <c r="I29" s="7">
+        <v>104539</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="7">
-        <v>152810</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="N29" s="7">
-        <v>236520</v>
+        <v>161130</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,49 +4481,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="D30" s="7">
-        <v>420997</v>
+        <v>152589</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="I30" s="7">
-        <v>494558</v>
+        <v>203419</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
-        <v>847</v>
+        <v>321</v>
       </c>
       <c r="N30" s="7">
-        <v>915555</v>
+        <v>356007</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,63 +4532,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>49</v>
+      </c>
+      <c r="D32" s="7">
+        <v>54930</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="7">
+        <v>86</v>
+      </c>
+      <c r="I32" s="7">
+        <v>95607</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M32" s="7">
+        <v>135</v>
+      </c>
+      <c r="N32" s="7">
+        <v>150537</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7">
+        <v>83709</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="7">
+        <v>143</v>
+      </c>
+      <c r="I33" s="7">
+        <v>152810</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" s="7">
+        <v>216</v>
+      </c>
+      <c r="N33" s="7">
+        <v>236520</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>382</v>
+      </c>
+      <c r="D34" s="7">
+        <v>420997</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="7">
+        <v>465</v>
+      </c>
+      <c r="I34" s="7">
+        <v>494558</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M34" s="7">
+        <v>847</v>
+      </c>
+      <c r="N34" s="7">
+        <v>915555</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3758,8 +4808,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D509848F-5976-4E95-A495-02143D93B6C0}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6C187-706B-441F-BFD5-C99FBCF15C62}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3775,7 +4825,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,49 +5836,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>45882</v>
+        <v>11941</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="H24" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>50105</v>
+        <v>4240</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="M24" s="7">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="N24" s="7">
-        <v>95987</v>
+        <v>16181</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,49 +5887,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>67342</v>
+        <v>19579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="H25" s="7">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="I25" s="7">
-        <v>183381</v>
+        <v>59611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="M25" s="7">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="N25" s="7">
-        <v>250723</v>
+        <v>79190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,49 +5938,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>501</v>
+        <v>294</v>
       </c>
       <c r="D26" s="7">
-        <v>478104</v>
+        <v>302810</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="H26" s="7">
-        <v>470</v>
+        <v>295</v>
       </c>
       <c r="I26" s="7">
-        <v>544444</v>
+        <v>313911</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M26" s="7">
-        <v>971</v>
+        <v>589</v>
       </c>
       <c r="N26" s="7">
-        <v>1022548</v>
+        <v>616721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>208</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,10 +5989,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -4954,10 +6004,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -4969,10 +6019,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -4986,55 +6036,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D28" s="7">
-        <v>45882</v>
+        <v>33941</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="H28" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I28" s="7">
-        <v>50105</v>
+        <v>45866</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="N28" s="7">
-        <v>95987</v>
+        <v>79807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,49 +6093,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7">
-        <v>67342</v>
+        <v>47763</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="H29" s="7">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="I29" s="7">
-        <v>183381</v>
+        <v>123770</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="N29" s="7">
-        <v>250723</v>
+        <v>171534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +6144,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>501</v>
+        <v>207</v>
       </c>
       <c r="D30" s="7">
-        <v>478104</v>
+        <v>175294</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
-        <v>470</v>
+        <v>175</v>
       </c>
       <c r="I30" s="7">
-        <v>544444</v>
+        <v>230533</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="M30" s="7">
-        <v>971</v>
+        <v>382</v>
       </c>
       <c r="N30" s="7">
-        <v>1022548</v>
+        <v>405827</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,63 +6195,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>51</v>
+      </c>
+      <c r="D32" s="7">
+        <v>45882</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="7">
+        <v>39</v>
+      </c>
+      <c r="I32" s="7">
+        <v>50105</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" s="7">
+        <v>90</v>
+      </c>
+      <c r="N32" s="7">
+        <v>95987</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>75</v>
+      </c>
+      <c r="D33" s="7">
+        <v>67342</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H33" s="7">
+        <v>146</v>
+      </c>
+      <c r="I33" s="7">
+        <v>183381</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" s="7">
+        <v>221</v>
+      </c>
+      <c r="N33" s="7">
+        <v>250723</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>501</v>
+      </c>
+      <c r="D34" s="7">
+        <v>478104</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H34" s="7">
+        <v>470</v>
+      </c>
+      <c r="I34" s="7">
+        <v>544444</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M34" s="7">
+        <v>971</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1022548</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5214,8 +6471,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9102092D-9505-4A83-8E23-1B1C11C5D388}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89DA719-FF47-4A2A-A795-8A876F9DA2B0}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5231,7 +6488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,49 +7499,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D24" s="7">
-        <v>51502</v>
+        <v>12280</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>265</v>
       </c>
       <c r="H24" s="7">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7">
-        <v>109857</v>
+        <v>10539</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>266</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="M24" s="7">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="N24" s="7">
-        <v>161359</v>
+        <v>22818</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,49 +7550,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
-        <v>89723</v>
+        <v>27762</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>274</v>
       </c>
       <c r="H25" s="7">
-        <v>383</v>
+        <v>102</v>
       </c>
       <c r="I25" s="7">
-        <v>206256</v>
+        <v>50613</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
-        <v>521</v>
+        <v>149</v>
       </c>
       <c r="N25" s="7">
-        <v>295979</v>
+        <v>78374</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,49 +7601,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>801</v>
+        <v>502</v>
       </c>
       <c r="D26" s="7">
-        <v>554248</v>
+        <v>327409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="H26" s="7">
-        <v>1124</v>
+        <v>701</v>
       </c>
       <c r="I26" s="7">
-        <v>709478</v>
+        <v>546242</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
-        <v>1925</v>
+        <v>1203</v>
       </c>
       <c r="N26" s="7">
-        <v>1263725</v>
+        <v>873649</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>288</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,10 +7652,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1025</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>695473</v>
+        <v>367450</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -6410,10 +7667,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>1706</v>
+        <v>825</v>
       </c>
       <c r="I27" s="7">
-        <v>1025591</v>
+        <v>607393</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -6425,10 +7682,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>2731</v>
+        <v>1394</v>
       </c>
       <c r="N27" s="7">
-        <v>1721064</v>
+        <v>974842</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -6442,55 +7699,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D28" s="7">
-        <v>51502</v>
+        <v>36567</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="H28" s="7">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="I28" s="7">
-        <v>109857</v>
+        <v>88487</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="M28" s="7">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="N28" s="7">
-        <v>161359</v>
+        <v>125054</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,49 +7756,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7">
-        <v>89723</v>
+        <v>57739</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>301</v>
       </c>
       <c r="H29" s="7">
-        <v>383</v>
+        <v>281</v>
       </c>
       <c r="I29" s="7">
-        <v>206256</v>
+        <v>135285</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>304</v>
       </c>
       <c r="M29" s="7">
-        <v>521</v>
+        <v>372</v>
       </c>
       <c r="N29" s="7">
-        <v>295979</v>
+        <v>193024</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,49 +7807,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>801</v>
+        <v>299</v>
       </c>
       <c r="D30" s="7">
-        <v>554248</v>
+        <v>187101</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>308</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>309</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="H30" s="7">
-        <v>1124</v>
+        <v>423</v>
       </c>
       <c r="I30" s="7">
-        <v>709478</v>
+        <v>202059</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="M30" s="7">
-        <v>1925</v>
+        <v>722</v>
       </c>
       <c r="N30" s="7">
-        <v>1263725</v>
+        <v>389161</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,63 +7858,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>456</v>
+      </c>
+      <c r="D31" s="7">
+        <v>281408</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707239</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>86</v>
+      </c>
+      <c r="D32" s="7">
+        <v>48847</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="7">
+        <v>199</v>
+      </c>
+      <c r="I32" s="7">
+        <v>99025</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M32" s="7">
+        <v>285</v>
+      </c>
+      <c r="N32" s="7">
+        <v>147872</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>138</v>
+      </c>
+      <c r="D33" s="7">
+        <v>85501</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" s="7">
+        <v>383</v>
+      </c>
+      <c r="I33" s="7">
+        <v>185898</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M33" s="7">
+        <v>521</v>
+      </c>
+      <c r="N33" s="7">
+        <v>271399</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>801</v>
+      </c>
+      <c r="D34" s="7">
+        <v>514510</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1124</v>
+      </c>
+      <c r="I34" s="7">
+        <v>748301</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1925</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1262810</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1025</v>
       </c>
-      <c r="D31" s="7">
-        <v>695473</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>648858</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>1706</v>
       </c>
-      <c r="I31" s="7">
-        <v>1025591</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033224</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>2731</v>
       </c>
-      <c r="N31" s="7">
-        <v>1721064</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1682081</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
